--- a/medicine/Mort/Nouveau_cimetière_de_Belgrade/Nouveau_cimetière_de_Belgrade.xlsx
+++ b/medicine/Mort/Nouveau_cimetière_de_Belgrade/Nouveau_cimetière_de_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nouveau cimetière ou Novo groblje (en serbe cyrillique : Ново гробље) est un  cimetière situé à Belgrade, la capitale de la Serbie. Il se trouve rue Ruzveltova, dans la municipalité de Zvezdara. Le cimetière a été construit en 1886 comme le troisième cimetière chrétien de la ville. Il abrite une église dédiée à saint Nicolas, construite en 1893 par Svetozar Ivačković à la suite d'une donation de Draginja et Stanojlo Petrović. En raison de sa valeur, il est inscrit sur la liste des monuments culturels de grande importance de la république de Serbie[1] et sur la liste des biens culturels de la ville de Belgrade[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nouveau cimetière ou Novo groblje (en serbe cyrillique : Ново гробље) est un  cimetière situé à Belgrade, la capitale de la Serbie. Il se trouve rue Ruzveltova, dans la municipalité de Zvezdara. Le cimetière a été construit en 1886 comme le troisième cimetière chrétien de la ville. Il abrite une église dédiée à saint Nicolas, construite en 1893 par Svetozar Ivačković à la suite d'une donation de Draginja et Stanojlo Petrović. En raison de sa valeur, il est inscrit sur la liste des monuments culturels de grande importance de la république de Serbie et sur la liste des biens culturels de la ville de Belgrade.
 En plus des tombes de simples particuliers, le nouveau cimetière abrite une section militaire, où se trouvent des tombes remontant à la guerre serbo-ottomane de 1876-1878, à la guerre serbo-bulgare, aux guerres balkaniques et aux deux guerres mondiales ; on y trouve aussi l'allée des Citoyens méritants et l'allée des Grands, où sont enterrées d'importantes personnalités de l'histoire serbe.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Tombes militaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le plus ancien mémorial du Novo groblje est l'ossuaire des soldats serbes, construit en 1907, qui recueille les dépouilles des soldats morts lors des guerres serbo-ottomane et serbo-bulgare, dépouilles qui se trouvaient autrefois dans le cimetière de Tašmajdan. Une autre partie de cet ensemble militaire comprend les tombes de soldats des guerres balkaniques et des deux guerres mondiales (en particulier le monument et ossuaire monumental aux défenseurs de Belgrade 1914-1918). On y trouve des tombes de soldats serbes mais aussi celles d'Alliés de la Première Guerre mondiale et Seconde Guerre mondiale, ainsi que celles de combattants des forces de l'Axe ; y sont enterrés des Français, des Russes, des Britanniques[3],[4], des Italiens, des Allemands, des Austro-hongrois et des Bulgares[5],[6]. La section militaire abrite également les tombes des morts de l'opération Châtiment de 1941 et du bombardement de Belgrade de 1944.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus ancien mémorial du Novo groblje est l'ossuaire des soldats serbes, construit en 1907, qui recueille les dépouilles des soldats morts lors des guerres serbo-ottomane et serbo-bulgare, dépouilles qui se trouvaient autrefois dans le cimetière de Tašmajdan. Une autre partie de cet ensemble militaire comprend les tombes de soldats des guerres balkaniques et des deux guerres mondiales (en particulier le monument et ossuaire monumental aux défenseurs de Belgrade 1914-1918). On y trouve des tombes de soldats serbes mais aussi celles d'Alliés de la Première Guerre mondiale et Seconde Guerre mondiale, ainsi que celles de combattants des forces de l'Axe ; y sont enterrés des Français, des Russes, des Britanniques des Italiens, des Allemands, des Austro-hongrois et des Bulgares,. La section militaire abrite également les tombes des morts de l'opération Châtiment de 1941 et du bombardement de Belgrade de 1944.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Cimetière des libérateurs de Belgrade</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière des libérateurs de Belgrade (en serbe cyrillique : Гробље ослободилаца Београда ; en serbe latin : Groblje oslobodilaca Beograda) a été inauguré le 20 octobre 1954 pour accueillir les corps de victimes de l'offensive de Belgrade, qui se déroula en 1944 dans le cadre du front yougoslave de la Seconde Guerre mondiale ; il abrite notamment les tombes de 1 321 Partisans yougoslaves et de 721 soldats de l'Armée rouge ; il constitue le premier mémorial de ce genre construit après la Seconde Guerre mondiale[7].
-L'ensemble commémoratif a été conçu par l'architecte Branko Bon et par la paysagiste Aleksandar Krstić. Le mémorial proprement dit est orné d'un relief du sculpteur Rade Stanković et d'une sculpture intitulée Le Soldat de l'Armée rouge, par Antun Augustinčić. Devant le mémorial se trouve également une sculpture de Rade Stanković représentant un Partisan tenant un fusil[7].
-Ce cimetière est inscrit sur la liste des biens culturels de la ville de Belgrade[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière des libérateurs de Belgrade (en serbe cyrillique : Гробље ослободилаца Београда ; en serbe latin : Groblje oslobodilaca Beograda) a été inauguré le 20 octobre 1954 pour accueillir les corps de victimes de l'offensive de Belgrade, qui se déroula en 1944 dans le cadre du front yougoslave de la Seconde Guerre mondiale ; il abrite notamment les tombes de 1 321 Partisans yougoslaves et de 721 soldats de l'Armée rouge ; il constitue le premier mémorial de ce genre construit après la Seconde Guerre mondiale.
+L'ensemble commémoratif a été conçu par l'architecte Branko Bon et par la paysagiste Aleksandar Krstić. Le mémorial proprement dit est orné d'un relief du sculpteur Rade Stanković et d'une sculpture intitulée Le Soldat de l'Armée rouge, par Antun Augustinčić. Devant le mémorial se trouve également une sculpture de Rade Stanković représentant un Partisan tenant un fusil.
+Ce cimetière est inscrit sur la liste des biens culturels de la ville de Belgrade.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Cimetière juif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Près du cimetière des Libérateurs de Belgrade se trouve le cimetière juif[5], qui abrite les dépouilles de soldats juifs mort dans les guerres balkaniques et pendant la Première Guerre mondiale, ainsi qu'un ossuaire des réfugiés juifs d'Autriche et le mémorial des victimes de la Shoah et des soldats juifs mort pendant la Seconde Guerre mondiale ; ce mémorial est une œuvre de l'architecte Bogdan Bogdanović.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près du cimetière des Libérateurs de Belgrade se trouve le cimetière juif, qui abrite les dépouilles de soldats juifs mort dans les guerres balkaniques et pendant la Première Guerre mondiale, ainsi qu'un ossuaire des réfugiés juifs d'Autriche et le mémorial des victimes de la Shoah et des soldats juifs mort pendant la Seconde Guerre mondiale ; ce mémorial est une œuvre de l'architecte Bogdan Bogdanović.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,16 +625,18 @@
           <t>Allée des Grands</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'allée des Grands (en serbe : Алеја великана et Aleja velikana) a été tracée au XIXe siècle pour y recueillir de grands personnages autrefois enterrés au cimetière de Tašmajdan. Depuis 1927, elle dispose d'un nombre invariable de 22 places. Parmi les personnalités enterrées dans l'allée, on peut citer :
-Kornelije Stanković (1831-1865), compositeur[8]
-Ilija Milosavljević Kolarac (1789-1878), bienfaiteur[9]
-Stevan Kaćanski (1828-1890), poète[10]
-Petar Kočić (1877-1916), écrivain[11]
-Jovan Cvijić (1865-1927), géographe[12]
-Kosta Hristić (1852-1927), diplomate et écrivain[13]
-Stevan Hristić (1885-1958), compositeur[14]</t>
+Kornelije Stanković (1831-1865), compositeur
+Ilija Milosavljević Kolarac (1789-1878), bienfaiteur
+Stevan Kaćanski (1828-1890), poète
+Petar Kočić (1877-1916), écrivain
+Jovan Cvijić (1865-1927), géographe
+Kosta Hristić (1852-1927), diplomate et écrivain
+Stevan Hristić (1885-1958), compositeur</t>
         </is>
       </c>
     </row>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,14 +664,16 @@
           <t>Allée des Citoyens méritants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'allée des Citoyens méritants (en serbe : Алеја заслужних грађана et Aleja zaslužnih građana) a été créée en 1965 ; y sont enterrés des citoyens importants, après une procédure d'approbation effectuée par l'Assemblée de la ville de Belgrade et par le maire de Belgrade. Elle abrite les tombes, individuelles ou collectives, d'écrivains, d'artistes, d'acteurs, de généraux, de récipiendaires de l'ordre du Héros national, et même quelques sportifs. Parmi les personnalités enterrées dans l'Allée, on peut citer[15] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'allée des Citoyens méritants (en serbe : Алеја заслужних грађана et Aleja zaslužnih građana) a été créée en 1965 ; y sont enterrés des citoyens importants, après une procédure d'approbation effectuée par l'Assemblée de la ville de Belgrade et par le maire de Belgrade. Elle abrite les tombes, individuelles ou collectives, d'écrivains, d'artistes, d'acteurs, de généraux, de récipiendaires de l'ordre du Héros national, et même quelques sportifs. Parmi les personnalités enterrées dans l'Allée, on peut citer :
 Paja Jovanović, (1859-1957), peintre
 Radivoj Korać, (1938-1969), joueur de basket-ball
 Petar Lubarda, (1907-1974), peintre
 Mija Aleksić, (1923-1995), acteur
-Ivo Andrić[16] (1892-1975), écrivain et prix Nobel de littérature
+Ivo Andrić (1892-1975), écrivain et prix Nobel de littérature
 Miloš Crnjanski, (1893-1977), poète, écrivain et diplomate
 Veljko Vlahović, (1914-1975), personnalité politique, héros national de la Yougoslavie
 Ivan Stambolić, (1936-2000), homme politique
@@ -665,7 +687,7 @@
 Borislav Pekić, (1930-1992), écrivain
 Milić od Mačve, (1934-2000), peintre
 Boško Buha, (1959-2002), Partisan
-Zoran Đinđić[17] (1952-2003), premier ministre de Serbie
+Zoran Đinđić (1952-2003), premier ministre de Serbie
 Stevo Žigon, (1926-2005), acteur
 Nikola Ljubičić, (1916-2005), général, héros national de la Yougoslavie
 Ljuba Tadić, (1929-2005), acteur
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nouveau_cimeti%C3%A8re_de_Belgrade</t>
+          <t>Nouveau_cimetière_de_Belgrade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +720,9 @@
           <t>Quelques tombes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Stevo Žigon et Rahela Ferari (allée des Citoyens méritants)
